--- a/Gurukula test cases.xlsx
+++ b/Gurukula test cases.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8805" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TestCases" sheetId="1" r:id="rId1"/>
+    <sheet name="TestDetails" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="112">
   <si>
     <t>Scenario</t>
   </si>
@@ -346,6 +347,42 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Framework Used: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Launching the tests: </t>
+  </si>
+  <si>
+    <t>There is a testng.xml file. Right click and run as TestNG Suite. It will run all the test cases at once.</t>
+  </si>
+  <si>
+    <t>Test Report:</t>
+  </si>
+  <si>
+    <t>TestNG- Selenium</t>
+  </si>
+  <si>
+    <t>IDE used:</t>
+  </si>
+  <si>
+    <t>Eclipse</t>
+  </si>
+  <si>
+    <t>Once the test cases are executed, refresh the project folder. The test reports will be available under the 'test-output' folder</t>
+  </si>
+  <si>
+    <t>Three reports will be available:</t>
+  </si>
+  <si>
+    <t>1. emailable-report.html</t>
+  </si>
+  <si>
+    <t>2. index.html report</t>
+  </si>
+  <si>
+    <t>3. Default test.html report(under the Default Suite folder)</t>
   </si>
 </sst>
 </file>
@@ -668,7 +705,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
@@ -1523,4 +1560,75 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D4:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="113.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="8" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>